--- a/code-Python/audiogramdataonesheet_2.xlsx
+++ b/code-Python/audiogramdataonesheet_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Upwork\AEPEEGanaylsis\Review paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AEP-anaylsis\code-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C03408-3FF3-4DE2-BDE5-450BDBCEB0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E883D9-9723-47C0-B180-CC3EB80AC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{CD708C41-0941-40B9-8B9B-7D5D810CF055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD708C41-0941-40B9-8B9B-7D5D810CF055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/code-Python/audiogramdataonesheet_2.xlsx
+++ b/code-Python/audiogramdataonesheet_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AEP-anaylsis\code-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E883D9-9723-47C0-B180-CC3EB80AC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86637B-B349-4429-A50F-3BFB7745AE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD708C41-0941-40B9-8B9B-7D5D810CF055}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="44">
   <si>
     <t>Subjects</t>
   </si>
@@ -162,21 +162,6 @@
   </si>
   <si>
     <t>LLR</t>
-  </si>
-  <si>
-    <t>125Hz</t>
-  </si>
-  <si>
-    <t>250Hz</t>
-  </si>
-  <si>
-    <t>500Hz</t>
-  </si>
-  <si>
-    <t>750Hz</t>
-  </si>
-  <si>
-    <t>1000Hz</t>
   </si>
   <si>
     <t>stim</t>
@@ -712,7 +697,7 @@
   <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,26 +709,26 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="13">
+        <v>125</v>
+      </c>
+      <c r="C1" s="14">
+        <v>250</v>
+      </c>
+      <c r="D1" s="15">
+        <v>500</v>
+      </c>
+      <c r="E1" s="16">
+        <v>750</v>
+      </c>
+      <c r="F1" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="H1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
